--- a/TableSchema.xlsx
+++ b/TableSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\CreateTableFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A4D2D4-9D40-4366-9502-A1F0DD3BD6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717B4AC2-E7C4-4036-AD85-55FD8FE802DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-936" yWindow="2412" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="2604" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>測試註解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHA2(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_NAME1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHA2(90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -620,7 +656,7 @@
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
@@ -694,18 +730,28 @@
         <v>IX_TEST_SCHEMA_10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -725,11 +771,21 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>

--- a/TableSchema.xlsx
+++ b/TableSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\CreateTableFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717B4AC2-E7C4-4036-AD85-55FD8FE802DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322BED5-B36A-4123-8BBD-DE1426F8FC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="2604" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHA2(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AAA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,15 +95,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHA2(90)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BBB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>測試名稱1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHA2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,21 +346,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -645,644 +642,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="3"/>
+    <col min="13" max="19" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="str">
+      <c r="J1" s="5" t="str">
         <f xml:space="preserve"> "PK_"&amp;B2</f>
         <v>PK_TEST_SCHEMA</v>
       </c>
-      <c r="J1" s="4" t="str">
+      <c r="K1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_01"</f>
         <v>IX_TEST_SCHEMA_01</v>
       </c>
-      <c r="K1" s="4" t="str">
+      <c r="L1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_02"</f>
         <v>IX_TEST_SCHEMA_02</v>
       </c>
-      <c r="L1" s="4" t="str">
+      <c r="M1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_03"</f>
         <v>IX_TEST_SCHEMA_03</v>
       </c>
-      <c r="M1" s="4" t="str">
+      <c r="N1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_04"</f>
         <v>IX_TEST_SCHEMA_04</v>
       </c>
-      <c r="N1" s="4" t="str">
+      <c r="O1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_05"</f>
         <v>IX_TEST_SCHEMA_05</v>
       </c>
-      <c r="O1" s="4" t="str">
+      <c r="P1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_06"</f>
         <v>IX_TEST_SCHEMA_06</v>
       </c>
-      <c r="P1" s="4" t="str">
+      <c r="Q1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_07"</f>
         <v>IX_TEST_SCHEMA_07</v>
       </c>
-      <c r="Q1" s="4" t="str">
+      <c r="R1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_08"</f>
         <v>IX_TEST_SCHEMA_08</v>
       </c>
-      <c r="R1" s="4" t="str">
+      <c r="S1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_09"</f>
         <v>IX_TEST_SCHEMA_09</v>
       </c>
-      <c r="S1" s="5" t="str">
+      <c r="T1" s="6" t="str">
         <f>"IX_"&amp;B2&amp;"_10"</f>
         <v>IX_TEST_SCHEMA_10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8">
+        <v>90</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D4" s="9"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D5" s="9"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D6" s="9"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="9"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="9"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D10" s="9"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D11" s="9"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D12" s="9"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D13" s="9"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D14" s="9"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D15" s="9"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D17" s="9"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D18" s="9"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="10"/>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D19" s="9"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D20" s="9"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="10"/>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D21" s="9"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D22" s="9"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="10"/>
-    </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D23" s="9"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D24" s="9"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D25" s="9"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D27" s="9"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="4:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D4" s="11"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D5" s="11"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D6" s="11"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D7" s="11"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D8" s="11"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D9" s="11"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D10" s="11"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D11" s="11"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D13" s="11"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D14" s="11"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D15" s="11"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D16" s="11"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D18" s="11"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D19" s="11"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D20" s="11"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D21" s="11"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D22" s="11"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D23" s="11"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D24" s="11"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D25" s="11"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D26" s="11"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D27" s="11"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D28" s="11"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D29" s="11"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="4:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
       <c r="S30" s="13"/>
+      <c r="T30" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TableSchema.xlsx
+++ b/TableSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\CreateTableFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322BED5-B36A-4123-8BBD-DE1426F8FC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C06C13-F77C-4218-BFCD-AFD036DC9AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>測試名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +104,82 @@
   </si>
   <si>
     <t>VARCHA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_NAME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_NAME3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_NAME4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_NAME5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_NAME6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_NAME7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -362,6 +434,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -644,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -653,15 +727,15 @@
     <col min="1" max="1" width="19.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9" style="3"/>
-    <col min="13" max="19" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="3"/>
+    <col min="10" max="10" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="22.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -669,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -678,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
@@ -691,47 +765,47 @@
       </c>
       <c r="J1" s="5" t="str">
         <f xml:space="preserve"> "PK_"&amp;B2</f>
-        <v>PK_TEST_SCHEMA</v>
+        <v>PK_TEST_NAME</v>
       </c>
       <c r="K1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_01"</f>
-        <v>IX_TEST_SCHEMA_01</v>
+        <v>IX_TEST_NAME_01</v>
       </c>
       <c r="L1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_02"</f>
-        <v>IX_TEST_SCHEMA_02</v>
+        <v>IX_TEST_NAME_02</v>
       </c>
       <c r="M1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_03"</f>
-        <v>IX_TEST_SCHEMA_03</v>
+        <v>IX_TEST_NAME_03</v>
       </c>
       <c r="N1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_04"</f>
-        <v>IX_TEST_SCHEMA_04</v>
+        <v>IX_TEST_NAME_04</v>
       </c>
       <c r="O1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_05"</f>
-        <v>IX_TEST_SCHEMA_05</v>
+        <v>IX_TEST_NAME_05</v>
       </c>
       <c r="P1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_06"</f>
-        <v>IX_TEST_SCHEMA_06</v>
+        <v>IX_TEST_NAME_06</v>
       </c>
       <c r="Q1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_07"</f>
-        <v>IX_TEST_SCHEMA_07</v>
+        <v>IX_TEST_NAME_07</v>
       </c>
       <c r="R1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_08"</f>
-        <v>IX_TEST_SCHEMA_08</v>
+        <v>IX_TEST_NAME_08</v>
       </c>
       <c r="S1" s="5" t="str">
         <f>"IX_"&amp;B2&amp;"_09"</f>
-        <v>IX_TEST_SCHEMA_09</v>
+        <v>IX_TEST_NAME_09</v>
       </c>
       <c r="T1" s="6" t="str">
         <f>"IX_"&amp;B2&amp;"_10"</f>
-        <v>IX_TEST_SCHEMA_10</v>
+        <v>IX_TEST_NAME_10</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -739,25 +813,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8">
-        <v>8</v>
-      </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -769,7 +843,7 @@
       <c r="S2" s="8"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="1:20" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -777,22 +851,20 @@
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8">
-        <v>90</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -806,13 +878,21 @@
       <c r="S3" s="2"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D4" s="11"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+    <row r="4" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -825,13 +905,23 @@
       <c r="S4" s="2"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D5" s="11"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+    <row r="5" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -844,13 +934,21 @@
       <c r="S5" s="2"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D6" s="11"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+    <row r="6" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -863,13 +961,23 @@
       <c r="S6" s="2"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="11"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+    <row r="7" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -882,13 +990,21 @@
       <c r="S7" s="2"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D8" s="11"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="8" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -902,13 +1018,27 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D9" s="11"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>

--- a/TableSchema.xlsx
+++ b/TableSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\CreateTableFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C06C13-F77C-4218-BFCD-AFD036DC9AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB543946-F2D0-42CD-92C2-A17799983CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +723,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -895,7 +899,9 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -924,7 +930,9 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -950,7 +958,9 @@
         <v>28</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -979,7 +989,9 @@
         <v>29</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1040,7 +1052,9 @@
         <v>35</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>

--- a/TableSchema.xlsx
+++ b/TableSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\CreateTableFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB543946-F2D0-42CD-92C2-A17799983CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E633C8-7F61-410C-ADC7-7593214B1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST_SCHEMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>測試註解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>測試名稱1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +172,30 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APUSER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -747,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -756,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
@@ -823,18 +835,18 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -852,23 +864,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -884,23 +896,23 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -913,25 +925,25 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -944,22 +956,22 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -973,24 +985,24 @@
     </row>
     <row r="7" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1004,18 +1016,20 @@
     </row>
     <row r="8" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="I8" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1031,29 +1045,29 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>

--- a/TableSchema.xlsx
+++ b/TableSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\CreateTableFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E633C8-7F61-410C-ADC7-7593214B1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69F3EC4-4579-49CB-AED7-4586B8B7A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>測試名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TEST_NAME1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,10 @@
   </si>
   <si>
     <t>16,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試名稱0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
@@ -835,23 +835,27 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -867,20 +871,20 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -896,23 +900,23 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -925,25 +929,25 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -956,25 +960,27 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -985,27 +991,29 @@
     </row>
     <row r="7" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1016,26 +1024,28 @@
     </row>
     <row r="8" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1045,29 +1055,29 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>

--- a/TableSchema.xlsx
+++ b/TableSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\CreateTableFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69F3EC4-4579-49CB-AED7-4586B8B7A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC20F07-6425-490E-B49E-BF11EEFB018A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
